--- a/label.xlsx
+++ b/label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\lab\HOMA-IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CB5E89-96C8-4A35-9E63-2DC3D8969CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978E49C0-DBDB-4DBF-8B87-376F353C2C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8388" windowHeight="4632" activeTab="4" xr2:uid="{9F60D546-3957-4CF2-AED3-9823B23CE41C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8388" windowHeight="4632" activeTab="3" xr2:uid="{9F60D546-3957-4CF2-AED3-9823B23CE41C}"/>
   </bookViews>
   <sheets>
     <sheet name="直" sheetId="1" r:id="rId1"/>
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEB63ED-214D-44FF-9584-98A3CE08FF9A}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:AL2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1688,13 +1688,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75252DA-566E-4481-BDC7-051C5C8A6146}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
